--- a/biology/Botanique/Bureau_d'études_bois/Bureau_d'études_bois.xlsx
+++ b/biology/Botanique/Bureau_d'études_bois/Bureau_d'études_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bureau_d%27%C3%A9tudes_bois</t>
+          <t>Bureau_d'études_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bureau d'études bois est une société réalisant des études et prestations de conseils techniques dans le bâtiment. Son rayon d’action concerne l’ensemble de la construction en bois. Dans le bâtiment, il sera le principal acteur du lot charpente / couverture en phase préparatoire. Le plus souvent issu d’une formation d’ingénieur, il travaille seul ou en équipe, en étroite collaboration avec les lots ayant un lien avec la structure bois comme le bureau d'études techniques structure béton mais aussi avec l’Architecte.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bureau_d%27%C3%A9tudes_bois</t>
+          <t>Bureau_d'études_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ingénierie Bois Construction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingénierie Bois Construction (IBC) est une association professionnelle rassemblant certains des bureaux d'études français spécialisés en construction bois.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bureau_d%27%C3%A9tudes_bois</t>
+          <t>Bureau_d'études_bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>L’activité du bureau d’études structure bois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’activité du bureau d’études est très diversifiée. La loi MOP et son décret d'application n° 93-1268 du 29 novembre 1993 définissent avec précision les différentes étapes dans lesquelles interviennent les bureaux d’études techniques (BET).
 Nous pouvons la décomposer en quatre grandes catégories, l’intervention du BET bois. L’étude de projets (en phase PRO), l’étude d’exécutions (en phase EXE), la direction de l'exécution du ou des contrats de travaux (en phase DET) et l’étude de diagnostic (DIA), expertise, missions conseil…
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bureau_d%27%C3%A9tudes_bois</t>
+          <t>Bureau_d'études_bois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,14 +596,16 @@
           <t>L’évolution des entreprises de charpente et les BET bois</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis la fin des années 1990, les entreprises de charpente ont considérablement évolué. En effet, la mise sur le marché des centres d’usinages a révolutionné les métiers de la construction bois. Ces installations importantes à la pointe de la technologie permettent de tailler toutes les pièces de bois de charpente à partir des données informatiques transmises par le Bureau d’Études spécialisé en structure bois. La précision de l’usinage est de l’ordre du 10e de millimètre.
 Le pilotage de la machine est effectué par un ouvrier qualifié. L’approvisionnement des pièces de bois est automatique. Il ne nécessite pas d’intervention humaine entre l’entrée dans la raboteuse et l’usinage complet des pièces de charpente. Tous les assemblages sont réalisables sans exception.
 Afin de répondre à une demande grandissante pour le paramétrage de ces centres d’usinages, les bureaux d’études techniques bois ont dû s’adapter et s’équiper de logiciel tels que Cadwork, SEMA ou DIETRICH'S AG.
 Ainsi, les dossiers de charpentes en phase exécutions sont modélisés en dessin assisté par ordinateur (DAO) puis à la demande de l’entreprise de charpente,  transmis en centre d’usinage. Cette évolution inévitable dans le domaine de la charpente a révolutionné le métier. La qualité et la diversité des assemblages bois ont été améliorées par la précision des machines. L’épure qui était alors réalisé dans les ateliers de charpente traditionnelle a été remplacée petit à petit par les centres d’usinages de type Hundegger.
 Ainsi, de par l’évolution des entreprises de charpentes, les bureaux d’études bois ont dû s’adapter à la demande puisqu’ils travaillent aussi bien sur les missions de conceptions que de programmations pour les centres d’usinages.
-Pour valoriser au mieux l'apport du numérique (CAO et pilotage industriel), des bureaux d'études développent désormais une intégration verticale en conception/construction en passant par le pilotage de la préfabrication industrielle et du montage en chantier[1].  
+Pour valoriser au mieux l'apport du numérique (CAO et pilotage industriel), des bureaux d'études développent désormais une intégration verticale en conception/construction en passant par le pilotage de la préfabrication industrielle et du montage en chantier.  
 </t>
         </is>
       </c>
